--- a/EightFactorDataVisulize/配置/配置.xlsx
+++ b/EightFactorDataVisulize/配置/配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="现货价格" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="库存" sheetId="3" r:id="rId3"/>
     <sheet name="利润" sheetId="4" r:id="rId4"/>
     <sheet name="期货价格" sheetId="5" r:id="rId5"/>
+    <sheet name="执行计划" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="505">
   <si>
     <t>f_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1605,6 +1606,54 @@
   </si>
   <si>
     <t>S0267357</t>
+  </si>
+  <si>
+    <t>顺序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基差率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5日动量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20日动量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波动率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期收益率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热力图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因子名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5091,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5689,4 +5738,124 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/EightFactorDataVisulize/配置/配置.xlsx
+++ b/EightFactorDataVisulize/配置/配置.xlsx
@@ -5745,7 +5745,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5765,6 +5765,12 @@
       <c r="A2" t="s">
         <v>494</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -5774,13 +5780,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>254</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -5790,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5801,13 +5813,19 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>498</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -5817,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5828,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5839,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5850,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
